--- a/Discharge/Gavi_01_2022-06-02_1200.xlsx
+++ b/Discharge/Gavi_01_2022-06-02_1200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ie.admin\Documents\EcuadorData_2022\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5610A5-7E7E-436F-A93B-C06DDAFC6328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C45C43-CC40-4861-B955-04205FC3FA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{E3BF7246-27AB-41E7-BD1B-46F430E83E5D}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7810" xr2:uid="{E3BF7246-27AB-41E7-BD1B-46F430E83E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -407,12 +406,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>35</v>
       </c>
@@ -451,7 +450,7 @@
         <v>6.1999999999999972E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40</v>
       </c>
@@ -470,7 +469,7 @@
         <v>2.0000000000000012E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>55</v>
       </c>
@@ -489,7 +488,7 @@
         <v>8.9999999999999987E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>70</v>
       </c>
@@ -508,7 +507,7 @@
         <v>4.7849999999999967E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>85</v>
       </c>
@@ -527,7 +526,7 @@
         <v>2.4000000000000022E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>100</v>
       </c>
@@ -546,7 +545,7 @@
         <v>7.4999999999999966E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>115</v>
       </c>
@@ -565,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -575,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -585,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -595,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -605,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -615,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -625,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -635,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -645,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -655,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -665,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19">
         <f t="shared" si="1"/>
         <v>0</v>
